--- a/data-raw/sample_data.xlsx
+++ b/data-raw/sample_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csuprod-my.sharepoint.com/personal/bhicks_csu_edu_au/Documents/Bens R projects/retention.helpers/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csuprod-my.sharepoint.com/personal/bhicks_csu_edu_au/Documents/Bens R projects/retention.helpers/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{C6712B50-F7B0-483A-8792-A796C5CCFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022F372C-E4A3-40AE-9DB7-A393034C2BD1}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{C6712B50-F7B0-483A-8792-A796C5CCFE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6887CEFF-624F-491F-8236-8600C99CAE0A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{45D14383-015C-456D-9CBE-486EF1486277}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{45D14383-015C-456D-9CBE-486EF1486277}"/>
   </bookViews>
   <sheets>
     <sheet name="student_course" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>last_registered_session</t>
-  </si>
-  <si>
-    <t>latest_leave_session</t>
-  </si>
-  <si>
-    <t>gpa</t>
   </si>
   <si>
     <t>points_att</t>
@@ -829,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE11896-68EB-4570-BD95-0515A0F46DFD}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,13 +835,12 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,31 +874,25 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2">
         <v>202130</v>
@@ -913,34 +900,31 @@
       <c r="H2">
         <v>2021</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3">
         <v>202130</v>
@@ -951,34 +935,31 @@
       <c r="I3">
         <v>202260</v>
       </c>
+      <c r="J3">
+        <v>192</v>
+      </c>
       <c r="K3">
-        <v>5.29</v>
-      </c>
-      <c r="L3">
-        <v>192</v>
-      </c>
-      <c r="M3">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
       <c r="G4">
         <v>202130</v>
@@ -986,34 +967,31 @@
       <c r="H4">
         <v>2021</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
       <c r="G5">
         <v>202130</v>
@@ -1021,34 +999,31 @@
       <c r="H5">
         <v>2021</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
       <c r="G6">
         <v>202230</v>
@@ -1056,34 +1031,31 @@
       <c r="H6">
         <v>2022</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
       <c r="G7">
         <v>202160</v>
@@ -1091,34 +1063,31 @@
       <c r="H7">
         <v>2021</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
       </c>
       <c r="G8">
         <v>202130</v>
@@ -1126,34 +1095,31 @@
       <c r="H8">
         <v>2021</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9">
         <v>202230</v>
@@ -1164,34 +1130,31 @@
       <c r="I9">
         <v>202230</v>
       </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
         <v>72</v>
       </c>
-      <c r="M9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>202260</v>
@@ -1202,34 +1165,31 @@
       <c r="I10">
         <v>202260</v>
       </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
       <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
         <v>40</v>
       </c>
-      <c r="M10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>202230</v>
@@ -1237,34 +1197,31 @@
       <c r="H11">
         <v>2022</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
       </c>
       <c r="G12">
         <v>202130</v>
@@ -1275,13 +1232,10 @@
       <c r="I12">
         <v>202130</v>
       </c>
+      <c r="J12">
+        <v>144</v>
+      </c>
       <c r="K12">
-        <v>2.8</v>
-      </c>
-      <c r="L12">
-        <v>144</v>
-      </c>
-      <c r="M12">
         <v>72</v>
       </c>
     </row>
@@ -1310,33 +1264,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>202160</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>44322</v>
@@ -1347,16 +1301,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>202160</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>44322</v>
@@ -1367,16 +1321,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>202230</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>44538</v>
@@ -1384,16 +1338,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>202230</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>44538</v>
@@ -1404,16 +1358,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>202230</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>44502</v>
@@ -1421,16 +1375,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>202260</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1">
         <v>44502</v>
@@ -1438,16 +1392,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>202130</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1">
         <v>44258</v>
@@ -1455,16 +1409,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>202130</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>44160</v>
@@ -1475,16 +1429,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>202130</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>44160</v>
@@ -1492,16 +1446,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>202160</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1">
         <v>44260</v>
@@ -1509,16 +1463,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>202160</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>44168</v>
@@ -1529,16 +1483,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>202160</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1">
         <v>44320</v>
@@ -1546,16 +1500,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>202160</v>
       </c>
       <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>44161</v>
@@ -1566,16 +1520,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>202130</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>44161</v>
@@ -1586,16 +1540,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>202130</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
       <c r="E16" s="1">
         <v>44165</v>
@@ -1603,16 +1557,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>202160</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
         <v>44161</v>
@@ -1620,16 +1574,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>202060</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
         <v>43979</v>
@@ -1637,16 +1591,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>202090</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1">
         <v>44160</v>
@@ -1654,16 +1608,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>202060</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
         <v>43986</v>
@@ -1671,16 +1625,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>202090</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1">
         <v>44161</v>
@@ -1691,16 +1645,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>202160</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1">
         <v>44322</v>
@@ -1711,16 +1665,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>202160</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1">
         <v>44322</v>
@@ -1731,16 +1685,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>202230</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1">
         <v>44532</v>
@@ -1751,16 +1705,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>202260</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1">
         <v>44532</v>
@@ -1771,16 +1725,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26">
         <v>202230</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1">
         <v>44532</v>
@@ -1791,16 +1745,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27">
         <v>202260</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1">
         <v>44532</v>
@@ -1811,16 +1765,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B28">
         <v>202230</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1">
         <v>44484</v>
@@ -1831,16 +1785,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29">
         <v>202230</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1">
         <v>44484</v>
@@ -1851,16 +1805,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30">
         <v>202260</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1">
         <v>44734</v>
@@ -1871,16 +1825,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B31">
         <v>202260</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="1">
         <v>44718</v>
@@ -1891,16 +1845,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B32">
         <v>202260</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>44718</v>
@@ -1911,16 +1865,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33">
         <v>202260</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1">
         <v>44734</v>
@@ -1931,16 +1885,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34">
         <v>202130</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
         <v>44266</v>
@@ -1948,16 +1902,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <v>202130</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1">
         <v>44132</v>
@@ -1968,16 +1922,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36">
         <v>202130</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" s="1">
         <v>44160</v>
@@ -1988,16 +1942,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>202130</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" s="1">
         <v>44132</v>
@@ -2008,16 +1962,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38">
         <v>202190</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1">
         <v>44182</v>
@@ -2028,16 +1982,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <v>202130</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1">
         <v>44132</v>
@@ -2048,16 +2002,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>202130</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1">
         <v>44160</v>
@@ -2068,16 +2022,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>202130</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1">
         <v>44266</v>
@@ -2085,16 +2039,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B42">
         <v>202190</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1">
         <v>44182</v>
@@ -2105,16 +2059,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43">
         <v>202190</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E43" s="1">
         <v>44182</v>
@@ -2125,16 +2079,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B44">
         <v>202190</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1">
         <v>44182</v>
@@ -2145,16 +2099,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45">
         <v>202130</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1">
         <v>44132</v>
@@ -2165,16 +2119,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46">
         <v>202190</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1">
         <v>44182</v>
@@ -2185,16 +2139,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>202030</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1">
         <v>43787</v>
@@ -2205,16 +2159,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>202030</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1">
         <v>43899</v>
@@ -2222,16 +2176,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49">
         <v>202090</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" s="1">
         <v>44046</v>
@@ -2242,16 +2196,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50">
         <v>202060</v>
       </c>
       <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
         <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>117</v>
       </c>
       <c r="E50" s="1">
         <v>43899</v>
@@ -2262,16 +2216,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <v>202090</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E51" s="1">
         <v>44046</v>
@@ -2282,16 +2236,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52">
         <v>202060</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1">
         <v>43905</v>
@@ -2302,16 +2256,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53">
         <v>202030</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="1">
         <v>43787</v>
@@ -2322,16 +2276,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54">
         <v>202060</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54" s="1">
         <v>43787</v>
@@ -2342,16 +2296,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B55">
         <v>202060</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E55" s="1">
         <v>43787</v>
@@ -2362,16 +2316,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56">
         <v>202060</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" s="1">
         <v>43787</v>
@@ -2382,16 +2336,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B57">
         <v>202030</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1">
         <v>43787</v>
@@ -2402,16 +2356,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58">
         <v>202030</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1">
         <v>43899</v>
@@ -2419,16 +2373,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59">
         <v>202090</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1">
         <v>44046</v>
@@ -2439,16 +2393,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60">
         <v>202060</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E60" s="1">
         <v>43899</v>
@@ -2459,16 +2413,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61">
         <v>202090</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1">
         <v>44132</v>
@@ -2479,16 +2433,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62">
         <v>202060</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1">
         <v>43905</v>
@@ -2496,16 +2450,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63">
         <v>202090</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1">
         <v>44132</v>
@@ -2516,16 +2470,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64">
         <v>202060</v>
       </c>
       <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" t="s">
-        <v>132</v>
       </c>
       <c r="E64" s="1">
         <v>44025</v>
@@ -2533,16 +2487,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65">
         <v>202060</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E65" s="1">
         <v>44040</v>
@@ -2550,16 +2504,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>202015</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E66" s="1">
         <v>43788</v>
@@ -2577,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5553512-9E7C-4345-A38B-6B0C54DB8EF3}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2588,456 +2542,456 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
         <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>202230</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>0.63</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>202230</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3">
         <v>0.77</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4">
         <v>202260</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>202130</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>0.72199999999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>202130</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>0.70799999999999996</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>202160</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7">
         <v>0.66</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>202160</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8">
         <v>0.75600000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>202130</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F9">
         <v>0.83</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>202160</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>0.79900000000000004</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>202060</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>0.68600000000000005</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>202090</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>0.77749999999999997</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>202060</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>0.69899999999999995</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>202130</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>0.17</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15">
         <v>202130</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>0.30080000000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>202030</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>0.71</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17">
         <v>202030</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>0.78900000000000003</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>202060</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F18">
         <v>0.126</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>202060</v>
       </c>
       <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
         <v>130</v>
       </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20">
         <v>202060</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
